--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2159.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2159.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.452038807044894</v>
+        <v>0.9226706027984619</v>
       </c>
       <c r="B1">
-        <v>3.00558151444636</v>
+        <v>1.661399006843567</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.111309060960224</v>
+        <v>1.596467018127441</v>
       </c>
       <c r="E1">
-        <v>0.6440118004976192</v>
+        <v>1.043352842330933</v>
       </c>
     </row>
   </sheetData>
